--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,112 +46,130 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>loose</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>tiny</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>might</t>
+    <t>short</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>difficult</t>
@@ -160,91 +178,85 @@
     <t>maybe</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>un</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>looked</t>
+    <t>return</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>actually</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>rec</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>used</t>
@@ -253,88 +265,73 @@
     <t>1</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>5</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>even</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>really</t>
   </si>
   <si>
     <t>negative</t>
@@ -346,21 +343,24 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -373,33 +373,30 @@
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -409,10 +406,7 @@
     <t>game</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>play</t>
+    <t>easy</t>
   </si>
   <si>
     <t>positive</t>
@@ -773,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -884,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -942,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,16 +957,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8">
-        <v>0.5471698113207547</v>
+        <v>0.625</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1142,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7365591397849462</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="C9">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9">
-        <v>0.546875</v>
+        <v>0.5625</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7323943661971831</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10">
-        <v>0.4347826086956522</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11">
-        <v>0.3885245901639344</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L11">
-        <v>474</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>474</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>746</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6891891891891891</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C12">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12">
-        <v>0.3228120516499283</v>
+        <v>0.3557377049180328</v>
       </c>
       <c r="L12">
-        <v>225</v>
+        <v>434</v>
       </c>
       <c r="M12">
-        <v>225</v>
+        <v>434</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>472</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6818181818181818</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13">
-        <v>0.2925311203319502</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>341</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6578947368421053</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14">
-        <v>0.2083333333333333</v>
+        <v>0.2842323651452282</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1434,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>95</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1442,38 +1436,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C15">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15">
-        <v>0.2048929663608563</v>
-      </c>
-      <c r="L15">
-        <v>67</v>
-      </c>
-      <c r="M15">
-        <v>67</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>260</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1492,13 +1486,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6296296296296297</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1510,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>0.2048192771084337</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,38 +1536,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6190476190476191</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="L17">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17">
-        <v>0.1798941798941799</v>
-      </c>
-      <c r="L17">
-        <v>34</v>
-      </c>
-      <c r="M17">
-        <v>34</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>155</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1586,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6181818181818182</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K18">
-        <v>0.1507936507936508</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>107</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1636,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6134453781512605</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K19">
-        <v>0.140625</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1686,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20">
-        <v>0.1236559139784946</v>
+        <v>0.15625</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1734,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1736,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5789473684210527</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,31 +1754,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21">
-        <v>0.108433734939759</v>
+        <v>0.125</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1786,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5777777777777777</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K22">
-        <v>0.1048951048951049</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1836,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,31 +1854,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K23">
-        <v>0.09402460456942004</v>
+        <v>0.1018437225636523</v>
       </c>
       <c r="L23">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M23">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1886,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K24">
-        <v>0.05013927576601671</v>
+        <v>0.05571030640668524</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1936,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,31 +1954,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25">
-        <v>0.04548408057179987</v>
+        <v>0.04096228868660598</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1469</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +1986,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,31 +2004,31 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26">
+        <v>0.04010695187165775</v>
+      </c>
+      <c r="L26">
         <v>15</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26">
-        <v>0.02698863636363636</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
       <c r="M26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>685</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2036,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5052631578947369</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,31 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>47</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27">
-        <v>0.0267022696929239</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
         <v>23</v>
-      </c>
-      <c r="N27">
-        <v>0.87</v>
-      </c>
-      <c r="O27">
-        <v>0.13</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4956521739130435</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C29">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2144,13 +2114,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4857142857142857</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2162,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4761904761904762</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2196,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4578313253012048</v>
+        <v>0.45</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2214,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2222,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4251968503937008</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2240,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2248,13 +2218,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4126984126984127</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2274,13 +2244,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4102564102564102</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2292,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2300,13 +2270,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3958333333333333</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2318,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2352,13 +2322,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3770491803278688</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2370,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2381,10 +2351,10 @@
         <v>0.375</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2396,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2404,13 +2374,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3673469387755102</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2422,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2430,13 +2400,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3595505617977528</v>
+        <v>0.359375</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2448,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2456,13 +2426,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3571428571428572</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2474,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2482,13 +2452,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.35</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2500,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2508,13 +2478,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3492063492063492</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2526,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2534,13 +2504,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3488372093023256</v>
+        <v>0.3359375</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2552,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2560,13 +2530,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3454545454545455</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2578,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2586,13 +2556,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3448275862068966</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2604,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2612,13 +2582,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3412322274881517</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2630,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2638,13 +2608,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3359375</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2656,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2664,13 +2634,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3267326732673267</v>
+        <v>0.2985781990521327</v>
       </c>
       <c r="C50">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2682,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2690,7 +2660,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3265306122448979</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C51">
         <v>16</v>
@@ -2708,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2716,13 +2686,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2734,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2742,13 +2712,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.282051282051282</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2760,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2820,13 +2790,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2678571428571428</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2838,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2846,13 +2816,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2551020408163265</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2864,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2872,13 +2842,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2890,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2898,13 +2868,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2432432432432433</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2916,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>56</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2924,13 +2894,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2417582417582418</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2942,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2950,13 +2920,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2246376811594203</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C61">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2968,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>214</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2976,13 +2946,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="C62">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2994,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3002,13 +2972,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2133333333333333</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3020,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>59</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3028,13 +2998,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.211340206185567</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C64">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3046,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3054,13 +3024,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2112676056338028</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3072,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>56</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3080,13 +3050,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2008928571428572</v>
+        <v>0.1857355126300149</v>
       </c>
       <c r="C66">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D66">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E66">
         <v>0.01</v>
@@ -3098,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3106,13 +3076,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1928571428571429</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C67">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3124,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3132,13 +3102,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.189873417721519</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3150,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3158,13 +3128,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1855670103092784</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3176,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>79</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3184,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1847133757961783</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>29</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>128</v>
@@ -3210,13 +3180,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1835443037974684</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C71">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3228,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>258</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3236,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1828571428571429</v>
+        <v>0.171875</v>
       </c>
       <c r="C72">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3254,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3262,13 +3232,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1779661016949153</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3280,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3288,13 +3258,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1762114537444934</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C74">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3306,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>374</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3314,13 +3284,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1728971962616822</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3332,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3340,25 +3310,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1556195965417868</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>293</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3366,13 +3336,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.154639175257732</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3384,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3392,25 +3362,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1366120218579235</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C78">
         <v>25</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3418,13 +3388,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1361256544502618</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3436,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>165</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3444,13 +3414,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1354166666666667</v>
+        <v>0.126027397260274</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3462,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>166</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3470,13 +3440,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1328125</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C81">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3488,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3496,13 +3466,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1235955056179775</v>
+        <v>0.125</v>
       </c>
       <c r="C82">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3514,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>234</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3522,25 +3492,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1133603238866397</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D83">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3548,13 +3518,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1118012422360248</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3566,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3574,13 +3544,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1103896103896104</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3592,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3600,25 +3570,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1063829787234043</v>
+        <v>0.1</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3626,25 +3596,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1041095890410959</v>
+        <v>0.09887005649717515</v>
       </c>
       <c r="C87">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D87">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3652,13 +3622,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1028571428571429</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3670,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3678,25 +3648,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09411764705882353</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3704,13 +3674,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08670520231213873</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3722,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3730,13 +3700,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08450704225352113</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D91">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3748,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>325</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3756,25 +3726,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07906976744186046</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C92">
         <v>34</v>
       </c>
       <c r="D92">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E92">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3782,13 +3752,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07653061224489796</v>
+        <v>0.0756578947368421</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3800,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>181</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3808,25 +3778,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.07425742574257425</v>
+        <v>0.06645569620253164</v>
       </c>
       <c r="C94">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E94">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>561</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3834,25 +3804,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0623608017817372</v>
+        <v>0.05580357142857143</v>
       </c>
       <c r="C95">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3860,13 +3830,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.05696202531645569</v>
+        <v>0.04439252336448598</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>0.05</v>
@@ -3878,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>298</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3886,13 +3856,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.0514018691588785</v>
+        <v>0.03975535168195719</v>
       </c>
       <c r="C97">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E97">
         <v>0.04</v>
@@ -3904,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>406</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3912,25 +3882,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04683544303797468</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C98">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E98">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>753</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3938,25 +3908,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0444104134762634</v>
+        <v>0.03548795944233207</v>
       </c>
       <c r="C99">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E99">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F99">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>624</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3964,51 +3934,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.03619909502262444</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100">
         <v>16</v>
       </c>
-      <c r="D100">
-        <v>21</v>
-      </c>
       <c r="E100">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="F100">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101">
-        <v>0.03180914512922465</v>
-      </c>
-      <c r="C101">
-        <v>16</v>
-      </c>
-      <c r="D101">
-        <v>17</v>
-      </c>
-      <c r="E101">
-        <v>0.06</v>
-      </c>
-      <c r="F101">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
